--- a/filtered_material_requests.xlsx
+++ b/filtered_material_requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -49,16 +49,16 @@
     <t>Warranty Status</t>
   </si>
   <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>H563674610</t>
-  </si>
-  <si>
-    <t>LIBERTY GENERAL INSURANCE UGANDA LIMITED</t>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>H564623968</t>
+  </si>
+  <si>
+    <t>MOTA-ENGIL (UGANDA) LIMITED</t>
   </si>
   <si>
     <t>Pending</t>
@@ -67,28 +67,31 @@
     <t>UG-36 speed license upgrade - T3554ci</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Wateya Job</t>
+    <t>Bbaale Jean</t>
+  </si>
+  <si>
+    <t>Katimbo Dennis Ronald</t>
+  </si>
+  <si>
+    <t>Karamaji Eliphasi</t>
+  </si>
+  <si>
+    <t>Ekiru David Bernard</t>
+  </si>
+  <si>
+    <t>Workshop</t>
   </si>
   <si>
     <t>Store</t>
   </si>
   <si>
-    <t>1902ND0UN0</t>
-  </si>
-  <si>
-    <t>302L793051</t>
-  </si>
-  <si>
-    <t>WT-8500</t>
-  </si>
-  <si>
-    <t>KYOCERA DK-8350</t>
-  </si>
-  <si>
-    <t>Non Claimable</t>
+    <t>302XD94150</t>
+  </si>
+  <si>
+    <t>KYOCERA PARTS FEED DRIVE L ASSY SP</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +492,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>20707</v>
+        <v>20949</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -510,21 +513,21 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>20905</v>
+        <v>20950</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -545,16 +548,296 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20951</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20952</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20953</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20954</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20955</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20956</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20957</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>20958</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
